--- a/pcb/BOM_BlueSmart_vedirect.xlsx
+++ b/pcb/BOM_BlueSmart_vedirect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="BOM_Board1_PCB1_2023-09-22" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="BOM_Board1_PCB1_2023-09-23" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
